--- a/data/0. old data/0. raw/2016/companies/bgp.xlsx
+++ b/data/0. old data/0. raw/2016/companies/bgp.xlsx
@@ -643,9 +643,6 @@
     <t>Schweiz</t>
   </si>
   <si>
-    <t>Universitätsspital Kinderkliniken, Steinwiesstrasse 75</t>
-  </si>
-  <si>
     <t>Universitätsspital Basel,  Spitalstrasse 21</t>
   </si>
   <si>
@@ -971,6 +968,9 @@
   </si>
   <si>
     <t>mylan</t>
+  </si>
+  <si>
+    <t>Kinderspital Zürich, Steinwiesstrasse 75</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1408,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="84">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1493,6 +1493,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1515,7 +1519,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="84">
+  <cellStyles count="88">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1563,6 +1567,8 @@
     <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1589,6 +1595,8 @@
     <cellStyle name="Link" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1904,9 +1912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2089,7 +2097,7 @@
         <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2177,7 +2185,7 @@
         <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2205,7 +2213,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2261,7 +2269,7 @@
         <v>198</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2403,7 +2411,7 @@
         <v>198</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2431,7 +2439,7 @@
         <v>198</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2459,7 +2467,7 @@
         <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2517,7 +2525,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2807,7 +2815,7 @@
         <v>198</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2891,7 +2899,7 @@
         <v>198</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2977,7 +2985,7 @@
         <v>198</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -3114,10 +3122,10 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>198</v>
@@ -3145,7 +3153,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>198</v>
@@ -3173,7 +3181,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>198</v>
@@ -3198,10 +3206,10 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>198</v>
@@ -3226,10 +3234,10 @@
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>198</v>
@@ -3254,10 +3262,10 @@
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>198</v>
@@ -3282,10 +3290,10 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>198</v>
@@ -3310,10 +3318,10 @@
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>198</v>
@@ -3338,10 +3346,10 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>198</v>
@@ -3366,10 +3374,10 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>198</v>
@@ -3394,16 +3402,16 @@
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
@@ -3422,10 +3430,10 @@
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>198</v>
@@ -3453,7 +3461,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>198</v>
@@ -3481,7 +3489,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>198</v>
@@ -3509,7 +3517,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>198</v>
@@ -3534,10 +3542,10 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>198</v>
@@ -3567,7 +3575,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>198</v>
@@ -3592,16 +3600,16 @@
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8">
@@ -3620,10 +3628,10 @@
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>198</v>
@@ -3648,7 +3656,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>198</v>
@@ -3673,16 +3681,16 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
@@ -3704,7 +3712,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>198</v>
@@ -3732,7 +3740,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>198</v>
@@ -3760,7 +3768,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>198</v>
@@ -3785,10 +3793,10 @@
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>198</v>
@@ -3813,16 +3821,16 @@
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1">
       <c r="A67" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8">
@@ -3841,16 +3849,16 @@
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8">
@@ -3869,10 +3877,10 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1">
       <c r="A69" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>198</v>
@@ -3897,10 +3905,10 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>198</v>
@@ -3925,10 +3933,10 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>198</v>
@@ -3955,10 +3963,10 @@
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>198</v>
@@ -3986,7 +3994,7 @@
         <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>198</v>
@@ -4013,10 +4021,10 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>198</v>
@@ -4041,10 +4049,10 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>198</v>
@@ -4072,7 +4080,7 @@
         <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>198</v>
@@ -4100,13 +4108,13 @@
         <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
@@ -4128,7 +4136,7 @@
         <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>198</v>
@@ -4156,7 +4164,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>198</v>
@@ -4184,7 +4192,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>198</v>
@@ -4212,7 +4220,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>198</v>
@@ -4237,10 +4245,10 @@
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1">
       <c r="A82" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>198</v>
@@ -4268,7 +4276,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>198</v>
@@ -4296,7 +4304,7 @@
         <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>198</v>
@@ -4321,10 +4329,10 @@
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>198</v>
@@ -4352,7 +4360,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>198</v>
@@ -4380,7 +4388,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>198</v>
@@ -4408,7 +4416,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>198</v>
@@ -4433,7 +4441,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>198</v>
@@ -4461,7 +4469,7 @@
         <v>101</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>198</v>
@@ -4486,10 +4494,10 @@
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1">
       <c r="A91" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>198</v>
@@ -4517,7 +4525,7 @@
         <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>198</v>
@@ -4545,7 +4553,7 @@
         <v>106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>198</v>
@@ -4573,13 +4581,13 @@
         <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8">
@@ -4601,13 +4609,13 @@
         <v>109</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8">
@@ -4629,7 +4637,7 @@
         <v>110</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>198</v>
@@ -4657,13 +4665,13 @@
         <v>112</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8">
@@ -4685,7 +4693,7 @@
         <v>113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>198</v>
@@ -4710,10 +4718,10 @@
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>198</v>
@@ -4738,16 +4746,16 @@
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1">
       <c r="A100" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8">
@@ -4766,10 +4774,10 @@
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1">
       <c r="A101" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>198</v>
@@ -4794,10 +4802,10 @@
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1">
       <c r="A102" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>198</v>
@@ -4822,10 +4830,10 @@
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1">
       <c r="A103" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>198</v>
@@ -4853,13 +4861,13 @@
         <v>119</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8">
@@ -4881,7 +4889,7 @@
         <v>120</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>198</v>
@@ -4909,7 +4917,7 @@
         <v>121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>198</v>
@@ -4937,7 +4945,7 @@
         <v>123</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>198</v>
@@ -4965,7 +4973,7 @@
         <v>125</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>198</v>
@@ -4990,10 +4998,10 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>198</v>
@@ -5021,7 +5029,7 @@
         <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>198</v>
@@ -5046,10 +5054,10 @@
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>198</v>
@@ -5074,16 +5082,16 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8">
@@ -5102,10 +5110,10 @@
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1">
       <c r="A113" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>198</v>
@@ -5130,10 +5138,10 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>198</v>
@@ -5158,10 +5166,10 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1">
       <c r="A115" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>198</v>
@@ -5186,10 +5194,10 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>198</v>
@@ -5214,10 +5222,10 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>198</v>
@@ -5353,7 +5361,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -5367,7 +5375,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -5381,7 +5389,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -5395,7 +5403,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -5409,7 +5417,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -5423,7 +5431,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -5446,7 +5454,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -5460,7 +5468,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -5474,7 +5482,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10">
         <v>2016</v>

--- a/data/0. old data/0. raw/2016/companies/bgp.xlsx
+++ b/data/0. old data/0. raw/2016/companies/bgp.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="308">
   <si>
     <t>sponsorship</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Grundstrasse 4</t>
   </si>
   <si>
-    <t>Arbeitsgruppe Lipide und Atherosklerose der Schweiz. Gesellschaft fÃ¼r Kardiologie (AGLA), vertreten durch Medworld AG</t>
-  </si>
-  <si>
     <t>Sennweidstrasse 46</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>Lochburgstrasse 39</t>
   </si>
   <si>
-    <t>Kantonsspital Baselland, vertreten durch Medworld AG</t>
-  </si>
-  <si>
     <t>Kantonsspital Frauenfeld, Spital Thurgau AG</t>
   </si>
   <si>
@@ -733,12 +727,6 @@
     <t>Journées Franco-Suisses de Pharmacie Hospitalière (JFSPH)</t>
   </si>
   <si>
-    <t>Junge Hausärzte Schweiz, vertreten durch Medworld</t>
-  </si>
-  <si>
-    <t>Kollegium für Hausarztmedizin, vertreten durch Medworld</t>
-  </si>
-  <si>
     <t>Médecins de Familles Genève</t>
   </si>
   <si>
@@ -769,9 +757,6 @@
     <t>Universitätsspital Zürich</t>
   </si>
   <si>
-    <t>Verein Berner Haus- und Kinderäztinnen (VBHK), Berner Insititut für Hausarztmedizin (BIHAM), vertreten durch Medworld</t>
-  </si>
-  <si>
     <t>Verein Gastroenterologie Zürich (VGZ)</t>
   </si>
   <si>
@@ -971,6 +956,18 @@
   </si>
   <si>
     <t>Kinderspital Zürich, Steinwiesstrasse 75</t>
+  </si>
+  <si>
+    <t>Junge Hausärzte Schweiz</t>
+  </si>
+  <si>
+    <t>Arbeitsgruppe Lipide und Atherosklerose der Schweiz. Gesellschaft für Kardiologie (AGLA)</t>
+  </si>
+  <si>
+    <t>Kollegium für Hausarztmedizin</t>
+  </si>
+  <si>
+    <t>Verein Berner Haus- und Kinderäztinnen (VBHK), Berner Insititut für Hausarztmedizin (BIHAM)</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1910,8 @@
   <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1974,13 +1971,13 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -2002,13 +1999,13 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -2030,13 +2027,13 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -2060,13 +2057,13 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -2088,16 +2085,16 @@
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2118,13 +2115,13 @@
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -2146,13 +2143,13 @@
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
@@ -2176,16 +2173,16 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2204,16 +2201,16 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2232,13 +2229,13 @@
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>28</v>
@@ -2260,16 +2257,16 @@
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2288,13 +2285,13 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
@@ -2316,13 +2313,13 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -2344,13 +2341,13 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -2372,13 +2369,13 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -2402,16 +2399,16 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2430,16 +2427,16 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2458,16 +2455,16 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2486,13 +2483,13 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -2516,16 +2513,16 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -2546,13 +2543,13 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>31</v>
@@ -2574,13 +2571,13 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>32</v>
@@ -2602,13 +2599,13 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>33</v>
@@ -2632,13 +2629,13 @@
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
@@ -2662,13 +2659,13 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
@@ -2690,13 +2687,13 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -2720,13 +2717,13 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -2750,13 +2747,13 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -2778,13 +2775,13 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -2806,16 +2803,16 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2834,13 +2831,13 @@
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
@@ -2862,13 +2859,13 @@
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>40</v>
@@ -2890,16 +2887,16 @@
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2920,13 +2917,13 @@
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>41</v>
@@ -2948,13 +2945,13 @@
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>42</v>
@@ -2976,16 +2973,16 @@
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -3004,13 +3001,13 @@
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
@@ -3032,13 +3029,13 @@
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>44</v>
@@ -3062,13 +3059,13 @@
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>45</v>
@@ -3092,13 +3089,13 @@
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>24</v>
@@ -3122,13 +3119,13 @@
     </row>
     <row r="42" spans="1:13" s="6" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>31</v>
@@ -3153,10 +3150,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>47</v>
@@ -3178,16 +3175,16 @@
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8">
@@ -3206,16 +3203,16 @@
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8">
@@ -3234,16 +3231,16 @@
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8">
@@ -3262,16 +3259,16 @@
     </row>
     <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
@@ -3290,16 +3287,16 @@
     </row>
     <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
@@ -3318,16 +3315,16 @@
     </row>
     <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8">
@@ -3346,16 +3343,16 @@
     </row>
     <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8">
@@ -3374,16 +3371,16 @@
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8">
@@ -3402,16 +3399,16 @@
     </row>
     <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
@@ -3430,16 +3427,16 @@
     </row>
     <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8">
@@ -3458,16 +3455,16 @@
     </row>
     <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8">
@@ -3486,16 +3483,16 @@
     </row>
     <row r="55" spans="1:13" s="1" customFormat="1">
       <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8">
@@ -3514,16 +3511,16 @@
     </row>
     <row r="56" spans="1:13" s="1" customFormat="1">
       <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8">
@@ -3542,16 +3539,16 @@
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8">
@@ -3572,16 +3569,16 @@
     </row>
     <row r="58" spans="1:13" s="1" customFormat="1">
       <c r="A58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8">
@@ -3600,16 +3597,16 @@
     </row>
     <row r="59" spans="1:13" s="1" customFormat="1">
       <c r="A59" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8">
@@ -3628,13 +3625,13 @@
     </row>
     <row r="60" spans="1:13" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8">
@@ -3653,16 +3650,16 @@
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8">
@@ -3681,16 +3678,16 @@
     </row>
     <row r="62" spans="1:13" s="1" customFormat="1">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
@@ -3709,16 +3706,16 @@
     </row>
     <row r="63" spans="1:13" s="1" customFormat="1">
       <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8">
@@ -3737,16 +3734,16 @@
     </row>
     <row r="64" spans="1:13" s="1" customFormat="1">
       <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8">
@@ -3765,16 +3762,16 @@
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1">
       <c r="A65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8">
@@ -3793,16 +3790,16 @@
     </row>
     <row r="66" spans="1:13" s="1" customFormat="1">
       <c r="A66" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8">
@@ -3821,16 +3818,16 @@
     </row>
     <row r="67" spans="1:13" s="1" customFormat="1">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8">
@@ -3849,16 +3846,16 @@
     </row>
     <row r="68" spans="1:13" s="1" customFormat="1">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8">
@@ -3877,16 +3874,16 @@
     </row>
     <row r="69" spans="1:13" s="1" customFormat="1">
       <c r="A69" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8">
@@ -3905,13 +3902,13 @@
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>29</v>
@@ -3933,16 +3930,16 @@
     </row>
     <row r="71" spans="1:13" s="1" customFormat="1">
       <c r="A71" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -3963,16 +3960,16 @@
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1">
       <c r="A72" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="8">
@@ -3991,16 +3988,16 @@
     </row>
     <row r="73" spans="1:13" s="1" customFormat="1">
       <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
@@ -4021,16 +4018,16 @@
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8">
@@ -4049,16 +4046,16 @@
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8">
@@ -4077,16 +4074,16 @@
     </row>
     <row r="76" spans="1:13" s="1" customFormat="1">
       <c r="A76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -4105,16 +4102,16 @@
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
@@ -4133,16 +4130,16 @@
     </row>
     <row r="78" spans="1:13" s="1" customFormat="1">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8">
@@ -4161,16 +4158,16 @@
     </row>
     <row r="79" spans="1:13" s="1" customFormat="1">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
@@ -4189,16 +4186,16 @@
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8">
@@ -4217,16 +4214,16 @@
     </row>
     <row r="81" spans="1:13" s="1" customFormat="1">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8">
@@ -4245,16 +4242,16 @@
     </row>
     <row r="82" spans="1:13" s="1" customFormat="1">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8">
@@ -4273,16 +4270,16 @@
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="8">
@@ -4301,16 +4298,16 @@
     </row>
     <row r="84" spans="1:13" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
@@ -4329,16 +4326,16 @@
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8">
@@ -4357,13 +4354,13 @@
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>31</v>
@@ -4385,16 +4382,16 @@
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8">
@@ -4413,13 +4410,13 @@
     </row>
     <row r="88" spans="1:13" s="1" customFormat="1">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8">
@@ -4438,16 +4435,16 @@
     </row>
     <row r="89" spans="1:13" s="1" customFormat="1">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8">
@@ -4466,16 +4463,16 @@
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
@@ -4494,16 +4491,16 @@
     </row>
     <row r="91" spans="1:13" s="1" customFormat="1">
       <c r="A91" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8">
@@ -4522,16 +4519,16 @@
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8">
@@ -4550,16 +4547,16 @@
     </row>
     <row r="93" spans="1:13" s="1" customFormat="1">
       <c r="A93" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8">
@@ -4578,16 +4575,16 @@
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8">
@@ -4606,16 +4603,16 @@
     </row>
     <row r="95" spans="1:13" s="1" customFormat="1">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="8">
@@ -4634,16 +4631,16 @@
     </row>
     <row r="96" spans="1:13" s="1" customFormat="1">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="8">
@@ -4662,16 +4659,16 @@
     </row>
     <row r="97" spans="1:13" s="1" customFormat="1">
       <c r="A97" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="8">
@@ -4690,16 +4687,16 @@
     </row>
     <row r="98" spans="1:13" s="1" customFormat="1">
       <c r="A98" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="8">
@@ -4718,16 +4715,16 @@
     </row>
     <row r="99" spans="1:13" s="1" customFormat="1">
       <c r="A99" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="8">
@@ -4746,16 +4743,16 @@
     </row>
     <row r="100" spans="1:13" s="1" customFormat="1">
       <c r="A100" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="8">
@@ -4774,16 +4771,16 @@
     </row>
     <row r="101" spans="1:13" s="1" customFormat="1">
       <c r="A101" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="8">
@@ -4802,16 +4799,16 @@
     </row>
     <row r="102" spans="1:13" s="1" customFormat="1">
       <c r="A102" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="8">
@@ -4830,16 +4827,16 @@
     </row>
     <row r="103" spans="1:13" s="1" customFormat="1">
       <c r="A103" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="8">
@@ -4858,16 +4855,16 @@
     </row>
     <row r="104" spans="1:13" s="1" customFormat="1">
       <c r="A104" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="8">
@@ -4886,16 +4883,16 @@
     </row>
     <row r="105" spans="1:13" s="1" customFormat="1">
       <c r="A105" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8">
@@ -4914,16 +4911,16 @@
     </row>
     <row r="106" spans="1:13" s="1" customFormat="1">
       <c r="A106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="8">
@@ -4942,16 +4939,16 @@
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1">
       <c r="A107" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="8">
@@ -4970,16 +4967,16 @@
     </row>
     <row r="108" spans="1:13" s="1" customFormat="1">
       <c r="A108" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="8">
@@ -4998,16 +4995,16 @@
     </row>
     <row r="109" spans="1:13" s="1" customFormat="1">
       <c r="A109" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8">
@@ -5026,16 +5023,16 @@
     </row>
     <row r="110" spans="1:13" s="1" customFormat="1">
       <c r="A110" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="8">
@@ -5054,16 +5051,16 @@
     </row>
     <row r="111" spans="1:13" s="1" customFormat="1">
       <c r="A111" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F111" s="8"/>
       <c r="G111" s="8">
@@ -5082,16 +5079,16 @@
     </row>
     <row r="112" spans="1:13" s="1" customFormat="1">
       <c r="A112" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F112" s="8"/>
       <c r="G112" s="8">
@@ -5110,16 +5107,16 @@
     </row>
     <row r="113" spans="1:13" s="1" customFormat="1">
       <c r="A113" s="1" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8">
@@ -5138,16 +5135,16 @@
     </row>
     <row r="114" spans="1:13" s="1" customFormat="1">
       <c r="A114" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8">
@@ -5166,16 +5163,16 @@
     </row>
     <row r="115" spans="1:13" s="1" customFormat="1">
       <c r="A115" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8">
@@ -5194,16 +5191,16 @@
     </row>
     <row r="116" spans="1:13" s="1" customFormat="1">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="8">
@@ -5222,16 +5219,16 @@
     </row>
     <row r="117" spans="1:13" s="1" customFormat="1">
       <c r="A117" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
@@ -5361,7 +5358,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B2">
         <v>2016</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B4">
         <v>2016</v>
@@ -5403,7 +5400,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B5">
         <v>2016</v>
@@ -5417,7 +5414,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B7">
         <v>2016</v>
@@ -5454,7 +5451,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B8">
         <v>2016</v>
@@ -5468,7 +5465,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -5482,7 +5479,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B10">
         <v>2016</v>
